--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="9930"/>
+    <workbookView windowWidth="20385" windowHeight="8520" tabRatio="530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="login2" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="registerquick" sheetId="3" r:id="rId3"/>
     <sheet name="accountSetting" sheetId="4" r:id="rId4"/>
     <sheet name="updatePassword" sheetId="5" r:id="rId5"/>
     <sheet name="addAddress" sheetId="6" r:id="rId6"/>
+    <sheet name="login" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178">
   <si>
     <t>case_name</t>
   </si>
@@ -535,6 +536,24 @@
   </si>
   <si>
     <t>addAddress_tokenNull</t>
+  </si>
+  <si>
+    <t>loginAccount</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>220119</t>
+  </si>
+  <si>
+    <t>account or password error!</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>success!</t>
   </si>
 </sst>
 </file>
@@ -544,8 +563,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -561,6 +580,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -593,47 +620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,7 +648,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -668,8 +670,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,14 +710,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -707,8 +717,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,43 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,48 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -849,7 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,31 +832,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +922,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,9 +951,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -947,30 +964,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,35 +981,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1048,6 +1014,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1056,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1068,159 +1087,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" quotePrefix="1">
@@ -1229,10 +1260,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,6 +1319,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1543,17 +1579,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -1565,181 +1600,181 @@
     <col min="8" max="8" width="62.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1754,7 +1789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -1773,32 +1808,32 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1809,22 +1844,22 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
@@ -1838,22 +1873,22 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I3" t="s">
@@ -1867,22 +1902,22 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
@@ -1896,19 +1931,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
@@ -1922,19 +1957,19 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
@@ -1948,22 +1983,22 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I7" t="s">
@@ -1977,19 +2012,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I8" t="s">
@@ -2003,22 +2038,22 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="I9" t="s">
@@ -2032,22 +2067,22 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
@@ -2070,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -2088,29 +2123,29 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:8">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" customFormat="1" spans="1:7">
       <c r="A2" t="s">
@@ -2119,16 +2154,16 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
@@ -2142,16 +2177,16 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
@@ -2165,13 +2200,13 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
@@ -2185,16 +2220,16 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G5" t="s">
@@ -2208,16 +2243,16 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G6" t="s">
@@ -2237,7 +2272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
@@ -2254,38 +2289,38 @@
     <col min="8" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:11">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2296,28 +2331,28 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
@@ -2331,28 +2366,28 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K3" t="s">
@@ -2366,25 +2401,25 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K4" t="s">
@@ -2398,25 +2433,25 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
@@ -2430,25 +2465,25 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="K6" t="s">
@@ -2462,13 +2497,13 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F7" t="s">
@@ -2477,13 +2512,13 @@
       <c r="G7" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K7" t="s">
@@ -2497,25 +2532,25 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K8" t="s">
@@ -2529,28 +2564,28 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K9" t="s">
@@ -2564,25 +2599,25 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K10" t="s">
@@ -2599,25 +2634,25 @@
       <c r="C11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="I11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K11" t="s">
@@ -2631,25 +2666,25 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>62</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="K12" t="s">
@@ -2663,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -2680,32 +2715,32 @@
     <col min="6" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:9">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2716,10 +2751,10 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>88</v>
       </c>
       <c r="E2" t="s">
@@ -2728,10 +2763,10 @@
       <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I2" t="s">
@@ -2745,7 +2780,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
@@ -2754,10 +2789,10 @@
       <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I3" t="s">
@@ -2771,19 +2806,19 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I4" t="s">
@@ -2797,10 +2832,10 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
@@ -2809,10 +2844,10 @@
       <c r="F5" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>95</v>
       </c>
       <c r="I5" t="s">
@@ -2826,10 +2861,10 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
@@ -2838,10 +2873,10 @@
       <c r="F6" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I6" t="s">
@@ -2855,19 +2890,19 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
       <c r="I7" t="s">
@@ -2884,7 +2919,7 @@
       <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
@@ -2893,10 +2928,10 @@
       <c r="F8" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I8" t="s">
@@ -2910,10 +2945,10 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
@@ -2922,10 +2957,10 @@
       <c r="F9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>103</v>
       </c>
       <c r="I9" t="s">
@@ -2939,7 +2974,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
@@ -2948,10 +2983,10 @@
       <c r="F10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="I10" t="s">
@@ -2965,10 +3000,10 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
@@ -2977,10 +3012,10 @@
       <c r="F11" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="G11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
@@ -2994,7 +3029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U21"/>
   <sheetViews>
@@ -3011,964 +3046,964 @@
     <col min="10" max="10" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:21">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:21">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" ht="15" spans="1:21">
       <c r="A2" t="s">
         <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="9" t="s">
+      <c r="R2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="U2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" ht="15" spans="1:21">
       <c r="A3" t="s">
         <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="9" t="s">
+      <c r="R3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="13" t="s">
         <v>134</v>
       </c>
       <c r="U3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="15" spans="1:21">
       <c r="A4" t="s">
         <v>136</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T4" s="9" t="s">
+      <c r="R4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="13" t="s">
         <v>137</v>
       </c>
       <c r="U4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="15" spans="1:21">
       <c r="A5" t="s">
         <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T5" s="9" t="s">
+      <c r="R5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="13" t="s">
         <v>140</v>
       </c>
       <c r="U5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" ht="15" spans="1:21">
       <c r="A6" t="s">
         <v>142</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T6" s="9" t="s">
+      <c r="R6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="13" t="s">
         <v>143</v>
       </c>
       <c r="U6" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" ht="15" spans="1:21">
       <c r="A7" t="s">
         <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="Q7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T7" s="9" t="s">
+      <c r="R7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" s="13" t="s">
         <v>143</v>
       </c>
       <c r="U7" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" ht="15" spans="1:21">
       <c r="A8" t="s">
         <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="9" t="s">
+      <c r="R8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T8" s="13" t="s">
         <v>148</v>
       </c>
       <c r="U8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" ht="15" spans="1:21">
       <c r="A9" t="s">
         <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="Q9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="9" t="s">
+      <c r="R9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>148</v>
       </c>
       <c r="U9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" ht="15" spans="1:21">
       <c r="A10" t="s">
         <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="Q10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="9" t="s">
+      <c r="R10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10" s="13" t="s">
         <v>153</v>
       </c>
       <c r="U10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" ht="15" spans="1:21">
       <c r="A11" t="s">
         <v>155</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q11" s="11" t="s">
+      <c r="Q11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T11" s="9" t="s">
+      <c r="R11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="13" t="s">
         <v>153</v>
       </c>
       <c r="U11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" ht="15" spans="1:21">
       <c r="A12" t="s">
         <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="11" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q12" s="11" t="s">
+      <c r="Q12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="9" t="s">
+      <c r="R12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="13" t="s">
         <v>158</v>
       </c>
       <c r="U12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" ht="15" spans="1:21">
       <c r="A13" t="s">
         <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="9"/>
+      <c r="N13" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T13" s="9" t="s">
+      <c r="R13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="13" t="s">
         <v>161</v>
       </c>
       <c r="U13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" ht="15" spans="1:21">
       <c r="A14" t="s">
         <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="9" t="s">
+      <c r="R14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="13" t="s">
         <v>161</v>
       </c>
       <c r="U14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" ht="15" spans="1:21">
       <c r="A15" t="s">
         <v>165</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="9"/>
+      <c r="O15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T15" s="9" t="s">
+      <c r="R15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>166</v>
       </c>
       <c r="U15" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" ht="15" spans="1:21">
       <c r="A16" t="s">
         <v>168</v>
       </c>
@@ -3978,238 +4013,373 @@
       <c r="C16" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T16" s="9" t="s">
+      <c r="R16" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T16" s="13" t="s">
         <v>27</v>
       </c>
       <c r="U16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" ht="15" spans="1:21">
       <c r="A17" t="s">
         <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T17" s="9" t="s">
+      <c r="R17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="13" t="s">
         <v>103</v>
       </c>
       <c r="U17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" ht="15" spans="1:21">
       <c r="A18" t="s">
         <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T18" s="9" t="s">
+      <c r="R18" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="T18" s="13" t="s">
         <v>27</v>
       </c>
       <c r="U18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:17">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="4:17">
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+    <row r="19" ht="15" spans="4:17">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" ht="15" spans="4:17">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" ht="15" spans="4:17">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="60.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3">
+        <v>18521035133</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123456</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="3">
+        <v>18521035133</v>
+      </c>
+      <c r="D3" s="6">
+        <v>111111</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="18521035133"/>
+    <hyperlink ref="C3" r:id="rId1" display="18521035133"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/testFile/case/userCase.xlsx
+++ b/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520" tabRatio="530" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="20385" windowHeight="8970" tabRatio="530" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="login2" sheetId="1" r:id="rId1"/>
@@ -561,10 +561,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -612,11 +612,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -631,6 +662,38 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,73 +718,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -748,6 +748,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -761,6 +791,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,42 +898,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -863,48 +905,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,17 +970,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,30 +1026,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1054,7 +1039,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,8 +1062,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,133 +1087,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
